--- a/R/codebooks/D3_output_spells_category.xlsx
+++ b/R/codebooks/D3_output_spells_category.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26815"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="84" documentId="8_{42C6DBC1-4121-4726-8188-8081BB426666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3209722F-E500-429C-AA7A-9586608912AF}"/>
+  <xr:revisionPtr revIDLastSave="86" documentId="8_{42C6DBC1-4121-4726-8188-8081BB426666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D30F91E0-C9C2-4818-9CF4-B7F867955170}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,7 @@
     <t>Content of the dataset</t>
   </si>
   <si>
-    <t>contains the spells exited from CreateSpells, i.e., all the continuos spells of observation period of each person, stratified per op_meaning. op_meaning is by defult the same for all observation periods, and is set in 05_subpopulations_restricting_meanings for those data sources where the analysis is conducted on subpopulations having different sets of data banks</t>
+    <t>contains the spells exited from CreateSpells, i.e., all the continuous spells of observation period of each person, stratified per op_meaning. op_meaning is by default the same for all observation periods, and is set in 05_subpopulations_restricting_meanings for those data sources where the analysis is conducted on subpopulations having different sets of data banks</t>
   </si>
   <si>
     <t>Unit of observation</t>
@@ -755,7 +755,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1217,15 +1217,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Comments xmlns="8029070a-695f-410c-a424-24d0683063af" xsi:nil="true"/>
-    <TaxCatchAll xmlns="797b3a1e-a17b-4ca2-8e72-b47fcb862c81" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8029070a-695f-410c-a424-24d0683063af">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1480,16 +1477,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Comments xmlns="8029070a-695f-410c-a424-24d0683063af" xsi:nil="true"/>
+    <TaxCatchAll xmlns="797b3a1e-a17b-4ca2-8e72-b47fcb862c81" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8029070a-695f-410c-a424-24d0683063af">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE8A1FD8-B49B-4DD5-B035-18D91695717A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E3594D7-89C9-4FB7-87F1-388B97141296}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1497,5 +1497,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E3594D7-89C9-4FB7-87F1-388B97141296}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE8A1FD8-B49B-4DD5-B035-18D91695717A}"/>
 </file>